--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -389,10 +389,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -413,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>123</v>
+        <v>88888888</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -424,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>13982004967</v>
       </c>
     </row>
     <row r="4" spans="1:3">
